--- a/experiment result/128_0.8_40_zs10_kappa_lp.xlsx
+++ b/experiment result/128_0.8_40_zs10_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.006380025566837644</v>
+        <v>0.00125654909643537</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01132446230163844</v>
+        <v>0.002309462614396578</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03060959149110597</v>
+        <v>0.02311504011615656</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01393650323068273</v>
+        <v>0.001866107792590854</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01067542228570099</v>
+        <v>0.002013866244464443</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01415146058388688</v>
+        <v>0.001728303567347712</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01694205886633734</v>
+        <v>0.008176244720176619</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01052919042215124</v>
+        <v>0.001904312914827268</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.023580490970097</v>
+        <v>0.008518646923513454</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01621987563427595</v>
+        <v>0.01416561352626734</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0206365606826747</v>
+        <v>0.008149712248611007</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01749142278399846</v>
+        <v>0.009583209865797908</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01233290507078756</v>
+        <v>0.002232781913390787</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0181074012453796</v>
+        <v>0.001584710625227234</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01252421390588257</v>
+        <v>0.001959220889949035</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0224903217852814</v>
+        <v>0.00144186179359458</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01168046262090558</v>
+        <v>0.02210119899567801</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01051988344090147</v>
+        <v>0.001239084470177452</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0242213421994553</v>
+        <v>0.003854613428610078</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.01377155836298929</v>
+        <v>0.003575958976145308</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.007679871676954303</v>
+        <v>0.001197735206218123</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01398012896446534</v>
+        <v>0.0004585262205080229</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01171750209070297</v>
+        <v>0.00244540017854408</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.005465862039598321</v>
+        <v>0.001111114199113955</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.005660752309812058</v>
+        <v>0.0004596688695951104</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0192043102487603</v>
+        <v>0.003784288748459524</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.01820571494022122</v>
+        <v>0.002166976609489479</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0277371704610904</v>
+        <v>0.01243813503264406</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01840891305054645</v>
+        <v>0.003748058298809263</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.02281051687006421</v>
+        <v>0.001937236079505572</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.005838139187720119</v>
+        <v>0.0006884488357309525</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.01287260637312214</v>
+        <v>0.005070519208314281</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.02015313017483717</v>
+        <v>0.01383209939234028</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.01129608155286876</v>
+        <v>0.00477905090164203</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.01713389052745854</v>
+        <v>0.008216707338459273</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.02540919118108962</v>
+        <v>0.004775168220235921</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0111489871864798</v>
+        <v>0.001273896403775049</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01270516236212993</v>
+        <v>0.001686644427722118</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01606354044749966</v>
+        <v>0.003338919708380178</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.03311482017536017</v>
+        <v>0.03532244094733814</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01804034557190766</v>
+        <v>0.01041591617313055</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.008231394143279508</v>
+        <v>0.001009801981190499</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02138296482537346</v>
+        <v>0.003117204613930635</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.01798382221216051</v>
+        <v>0.00202931250060566</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.03296307859657906</v>
+        <v>0.02046248933379896</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01553716245894215</v>
+        <v>0.002309016607617222</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.02998049136897479</v>
+        <v>0.04214606598485822</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.008307559679229814</v>
+        <v>0.002667257566481677</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.02199257726109168</v>
+        <v>0.001055832917219088</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.008965064315484359</v>
+        <v>0.01136973231255892</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.02642207940083528</v>
+        <v>0.01798248534233463</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.03213104620932966</v>
+        <v>0.003466916894693234</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.003408502570359595</v>
+        <v>0.001554611266535409</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.003708438754919937</v>
+        <v>0.0003404284836036111</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01888090944369423</v>
+        <v>0.007701614042640634</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.02488645599862528</v>
+        <v>0.00366775515912242</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.01043189647451989</v>
+        <v>0.002988511053151386</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.01485114064117828</v>
+        <v>0.009801548797379137</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0119335418527326</v>
+        <v>0.002428799291157379</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.008017876419887925</v>
+        <v>0.001484614080877298</v>
       </c>
     </row>
   </sheetData>
